--- a/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type1/pd_results_W20_H50_B32.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type1/pd_results_W20_H50_B32.xlsx
@@ -518,7 +518,7 @@
         <v>0.7111984282907663</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4725609756097561</v>
+        <v>0.475609756097561</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.08829596998275073</v>
+        <v>0.09853565445856825</v>
       </c>
       <c r="J2" t="n">
-        <v>1150.322089882918</v>
+        <v>1291.18833749911</v>
       </c>
       <c r="K2" t="n">
-        <v>1763181.321807981</v>
+        <v>2188263.642505916</v>
       </c>
       <c r="L2" t="n">
-        <v>1327.848380579643</v>
+        <v>1479.278081533663</v>
       </c>
       <c r="M2" t="n">
-        <v>0.667391973155213</v>
+        <v>0.5872040819921165</v>
       </c>
     </row>
   </sheetData>
